--- a/note_for_keypoints.xlsx
+++ b/note_for_keypoints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12210"/>
+    <workbookView windowWidth="27945" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GNN" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>topic</t>
   </si>
@@ -42,6 +42,55 @@
  for nodes
  for nodes and edges (Node Then Edge learning, Edge Then Node learning, Weave Layer)
  for master node(context vector), vertex,  and edges (Graph Nets Layer)</t>
+  </si>
+  <si>
+    <t>Graph neural networks: A review of methods and applications</t>
+  </si>
+  <si>
+    <t>1.This paper focus on not only convolution operators but others, like skip connections and pooling operators.
+2.In introduction part, introduce some papers that are relevant to GNN reviews.
+4.This paper maily focus on the classic GNN models, and also provides variants of GNNs for different graph types.
+5.The design pipeline of GNN: 1.find graph structure 2.specify graph type and scale 3.design loss function 4.build model using computational modules.
+6.Find graph structure: structural scenarios and non-structural scenarios.
+7.Specify graph type and scale: Directed/Undirected Graphs; Homogeneous/Heterogeneous Graphs; Static/Dynamic Graphs.
+8.Design loss function: Node-level, Edge-level,Graph-level.
+9.Build model using computational modules:
+ Propagation Module: convolution operator, recurrent operator, and skip connection.
+ Sampling Module: The sampling module is usually combined with the propagation module.
+ Pooling Module: It is needed to extract infor_x0002_mation from nodes.
+10.Propagation Module
+ convolution operator: Spectral; Spatial
+ Recurrent Operator: Convergence; Gate
+ Skip Connection
+11.Sampling Module
+ Node; Layer; Subgraph
+12.Pooling Module: Direct; Hierarchical
+13.Graph Type and Scale: Directed; Heterogeneous; Dynamic; Hypergraph; Signed; large Graph
+14.Unsupervised Traning: Auto Encoder; Contrastive
+15.A design example of GNN</t>
+  </si>
+  <si>
+    <t>Interpretable and context-free deconvolution of multi-scale whole transcriptomic data with UniCell deconvolve</t>
+  </si>
+  <si>
+    <t>1.Deconvolve Base (UCDBase), a pre-trained, inter-pretable, deep learning model to deconvolve cell type fractions and predict cell identity across Spatial, bulk-RNA-Seq, and scRNA-Seq datasets without contextualized reference data.
+2.Earlier approaches, next generation deconvolution algorithm(the emergency of ST). For these traditional ways, a reference profile of cell type expressions are more important than methodology.
+3.Integration of numerous studies can improve the robustness and generalization of deconvolutions.
+4.UCDSelect on the other hand, allows for context-specific deconvolution using user-defined cell signatures by leveraging transfer learning of UCDBase features.
+5.UCDBase and UCDSelect are capable of producing highly accurate deconvolution predictions using both synthetic scRNA-Seq mixtures and real-world spatial transcriptomics data.
+6.Prediction specificity can be improved markedly by increasing the granularity of cell type label assignments.
+7.UCDBase was designed using empirical evaluation of a range of hyperparameters.
+8.Deconvolve Base (UCDBase), we provide a one step solution to this problem, generating accurate predictions across three transcriptomic data modalities, scRNA-Seq, bulk RNA, and ST without the need for additional user input.
+9.Deconvolve Select (UCDSelect), we enable deeper exploration of data, leveraging the benefits of transfer learning from a global pre-trained model, together with the contextual specificity of user-defined cell signatures.
+10.UCDBase is a Deep Neural Network (DNN) with 281,397,066 trainable parameters that accepts normalized RNA expression input and outputs predicted cell type fractions (see Fig. 6b).
+11.UCDBase accepts, by design, nearly all coding and non-coding human genes, for a total input size of 28,867 genes.
+12.Inputs, consisting of a 1-dimensional vector of gene expression values representing a single-cell or mixture of cells (hereby referred to as input), are normalized on a per-input basis.
+13.Preprocessing data: normalize, z-score, and minmax scaling.
+14.A two-step corruption process to our normalized sample inputs during model training. One is the injecting of 5% gaussian noise and another is a dropout layer.
+15.Intermediate layers:The core of UCDBase consists of four fully connected dense layers of 8192, 4096, 2048, and 1024 neurons using an exponential linear unit (ELU) activation function.
+16.The final layer of the model is a dense layer of 840 neurons, corresponding to all cell types available in our training database to-date.
+17.A belief propagation (BP) step: In such a way, fractional probabilities assigned to certain cell type subclasses are captured to yield higher confidence estimates of deconvolution fractions for more generic cell types.
+18.Generation of training data:) Expression data for cell types are accumulated and averaged together.</t>
   </si>
   <si>
     <t>RefDNN: a reference drug based neural network for more accurate prediction of anticancer drug resistance</t>
@@ -73,7 +122,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +132,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -544,152 +586,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -701,6 +743,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,20 +1073,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="92" customWidth="1"/>
+    <col min="1" max="1" width="92" style="4" customWidth="1"/>
     <col min="2" max="2" width="151.285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1048,6 +1099,14 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="375" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1059,25 +1118,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="48.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="97.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="48.1428571428571" style="5" customWidth="1"/>
+    <col min="2" max="2" width="158" customWidth="1"/>
     <col min="3" max="3" width="10.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="77" customHeight="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="409" customHeight="1" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1158,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1111,10 +1178,10 @@
     </row>
     <row r="2" ht="105" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1196,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1148,10 +1215,10 @@
     </row>
     <row r="2" ht="30" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/note_for_keypoints.xlsx
+++ b/note_for_keypoints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12210" activeTab="1"/>
+    <workbookView windowWidth="25620" windowHeight="11610" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GNN" sheetId="1" r:id="rId1"/>
@@ -731,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -744,9 +744,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1075,7 +1072,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1086,7 +1083,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1120,13 +1117,13 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="48.1428571428571" style="5" customWidth="1"/>
+    <col min="1" max="1" width="48.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="158" customWidth="1"/>
     <col min="3" max="3" width="10.4285714285714" customWidth="1"/>
   </cols>
@@ -1140,10 +1137,10 @@
       </c>
     </row>
     <row r="2" ht="409" customHeight="1" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1158,7 +1155,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1195,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
